--- a/附件1：东北大学2021创新创业大赛软件学院选拔赛项目汇总表.xlsx
+++ b/附件1：东北大学2021创新创业大赛软件学院选拔赛项目汇总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18320"/>
+    <workbookView windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
 针对此问题，我们创造性的提出开发一款集现今通讯软件优点，并在此之上更加强调思维逻辑的新型通讯产品——“MineForest”。</t>
   </si>
   <si>
-    <t>20206659-张海涵/20206910-马祺森/20206700-王迪</t>
+    <t>20206659-张海涵/20206910-马祺森/20206700-王迪/20206655-孙昕</t>
   </si>
   <si>
     <t>主赛道</t>
@@ -146,8 +146,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -250,16 +250,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -270,9 +286,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,43 +301,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,8 +332,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,14 +391,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,30 +399,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,13 +433,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,55 +487,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,19 +517,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,13 +529,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,7 +565,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,43 +607,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,23 +648,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,15 +659,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,6 +679,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -713,6 +704,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,151 +747,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1456,8 +1456,8 @@
   <sheetPr/>
   <dimension ref="A1:R628"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
